--- a/user.xlsx
+++ b/user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>杨巍</t>
   </si>
@@ -66,6 +66,48 @@
   </si>
   <si>
     <t>M1j37126</t>
+  </si>
+  <si>
+    <t>谢江霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙洪莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O8q93598</t>
+  </si>
+  <si>
+    <t>N5o49899</t>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -73,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="0" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -124,10 +166,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -445,75 +487,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="O1" s="1" t="str">
         <f ca="1">CHAR(INT(RAND()*26+65))&amp;INT(RAND()*9+1)&amp;CHAR(INT(RAND()*26+97))&amp;INT(RAND()*90000+10000)</f>
-        <v>N7l15592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>E4v38352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/user.xlsx
+++ b/user.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="O1" s="1" t="str">
         <f ca="1">CHAR(INT(RAND()*26+65))&amp;INT(RAND()*9+1)&amp;CHAR(INT(RAND()*26+97))&amp;INT(RAND()*90000+10000)</f>
-        <v>E4v38352</v>
+        <v>W7f36313</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
